--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="260" windowWidth="25600" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="19220" yWindow="640" windowWidth="25600" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="164">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,489 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形结构，级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp without time zone</t>
+  </si>
+  <si>
+    <t>CRT_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ORG_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可为按钮。Link、菜单等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别  1 男 ; 2 女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(32);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(32);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ORG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型  1全局用户  2部门用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TARGET_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个0的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(16);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">资源名称 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_LEVEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按级别编号，字典排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MOBILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ORG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TARGET_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标ID，为 JOJO_USR.T_ID 或 JOJO_DEPRT_USR_.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>smallint</t>
-  </si>
-  <si>
-    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,74 +619,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp without time zone</t>
-  </si>
-  <si>
-    <t>CRT_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT</t>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表ID,对应JOJO_USR.T_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,293 +651,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可为按钮。Link、菜单等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别  1 男 ; 2 女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(32);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MOBILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(32);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS</t>
-  </si>
-  <si>
-    <t>T_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TARGET_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型  1全局用户  2部门用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TARGET_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个0的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(16);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按级别编号，字典排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按级别编号，字典排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">资源名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
+    <t>T_ORG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务表ID,对应JOJO_ORG.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务、角色关系表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,79 +667,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_USR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标ID，为 JOJO_USR.T_ID 或 JOJO_DEPRT_USR_.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表ID,对应JOJO_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ORG_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ORG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表ID,对应JOJO_ORG.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PRV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表ID,对应JOJO_PRV.T_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PRV_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表ID,对应JOJO_PRV.T_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1299,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1220,13 +1314,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1243,10 +1337,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1274,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1289,34 +1383,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1466,13 +1560,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1489,10 +1583,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1520,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1535,34 +1629,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1706,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1717,15 +1811,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1733,15 +1827,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1749,26 +1843,26 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1776,15 +1870,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1909,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1833,10 +1927,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1853,7 +1947,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1881,10 +1975,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1894,12 +1988,12 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -1917,10 +2011,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1930,12 +2024,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1945,32 +2039,32 @@
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1981,7 +2075,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
@@ -1990,26 +2084,26 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -2018,12 +2112,12 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -2032,26 +2126,26 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -2060,7 +2154,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2195,7 +2289,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2213,10 +2307,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2233,7 +2327,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2282,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -2292,15 +2386,15 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
@@ -2308,15 +2402,15 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -2326,57 +2420,57 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2387,7 +2481,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -2396,26 +2490,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -2424,12 +2518,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -2438,26 +2532,26 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>13</v>
@@ -2466,7 +2560,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2601,7 +2695,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,10 +2713,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2639,10 +2733,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -2688,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -2698,15 +2792,15 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -2714,7 +2808,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2727,10 +2821,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2741,7 +2835,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -2750,26 +2844,26 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -2778,12 +2872,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -2792,26 +2886,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -2820,7 +2914,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2955,7 +3049,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2973,10 +3067,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2993,10 +3087,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3039,34 +3133,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3079,10 +3173,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3093,7 +3187,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -3102,26 +3196,26 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -3130,12 +3224,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -3144,26 +3238,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -3172,7 +3266,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3307,7 +3401,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3325,10 +3419,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3345,10 +3439,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3391,71 +3485,71 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -3464,26 +3558,26 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -3492,12 +3586,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -3506,26 +3600,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -3534,7 +3628,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3669,7 +3763,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3687,10 +3781,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3707,10 +3801,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3738,7 +3832,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -3756,53 +3850,53 @@
         <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3810,45 +3904,45 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3859,7 +3953,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -3868,26 +3962,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -3896,12 +3990,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -3910,26 +4004,26 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>13</v>
@@ -3938,7 +4032,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4073,7 +4167,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4091,10 +4185,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4111,10 +4205,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4139,52 +4233,52 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="640" windowWidth="25600" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="17100" yWindow="800" windowWidth="25640" windowHeight="16060" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="166">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_ORG_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可为按钮。Link、菜单等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职务表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,10 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TARGET_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,14 +587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smallint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_ORG_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_ORG_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,6 +656,38 @@
   </si>
   <si>
     <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源uri,可以为action等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY_ROLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +836,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -845,6 +853,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -889,7 +899,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -905,6 +915,8 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -1298,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1314,13 +1326,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1337,10 +1349,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1368,10 +1380,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1383,34 +1395,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1560,13 +1572,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1583,10 +1595,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1614,10 +1626,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1629,34 +1641,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1790,7 +1802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1800,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1816,10 +1830,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1827,15 +1841,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1843,26 +1857,26 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1870,15 +1884,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1941,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1947,7 +1961,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1975,10 +1989,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1988,12 +2002,12 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -2011,7 +2025,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -2029,7 +2043,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -2042,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2050,21 +2064,21 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2075,7 +2089,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
@@ -2084,12 +2098,12 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>34</v>
@@ -2098,12 +2112,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -2112,12 +2126,12 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -2126,12 +2140,12 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>34</v>
@@ -2140,12 +2154,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -2154,7 +2168,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2286,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2307,10 +2321,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2327,7 +2341,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2376,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -2386,12 +2400,12 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>25</v>
@@ -2402,15 +2416,15 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -2420,110 +2434,110 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -2532,44 +2546,50 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -2674,6 +2694,14 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2713,10 +2741,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2733,10 +2761,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -2782,7 +2810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -2792,15 +2820,15 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -2808,7 +2836,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2821,10 +2849,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3049,7 +3077,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3067,10 +3095,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3087,10 +3115,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3133,34 +3161,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3173,10 +3201,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3419,10 +3447,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3439,10 +3467,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3485,66 +3513,66 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3763,7 +3791,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3781,10 +3809,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3801,10 +3829,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3832,7 +3860,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -3850,53 +3878,53 @@
         <v>21</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3904,45 +3932,45 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4185,10 +4213,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4205,10 +4233,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4233,52 +4261,52 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="800" windowWidth="25640" windowHeight="16060" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="17100" yWindow="800" windowWidth="25640" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -1291,7 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -1310,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1803,7 +1805,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2303,7 +2305,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3077,7 +3079,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3429,7 +3431,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3791,7 +3793,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4195,7 +4197,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="800" windowWidth="25640" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10780" yWindow="8380" windowWidth="37640" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="权限表" sheetId="8" r:id="rId7"/>
     <sheet name="资源表" sheetId="9" r:id="rId8"/>
     <sheet name="部门、用户关系表" sheetId="10" r:id="rId9"/>
-    <sheet name="职务、角色关系表" sheetId="11" r:id="rId10"/>
+    <sheet name="部门用户、角色关系表" sheetId="11" r:id="rId10"/>
     <sheet name="角色、权限关系表" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职务、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,95 +595,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表ID,对应JOJO_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PRV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表ID,对应JOJO_PRV.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源uri,可以为action等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户、角色关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JOJO_DEPRT_USR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表ID,对应JOJO_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ORG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表ID,对应JOJO_ORG.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PRV_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表ID,对应JOJO_PRV.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源uri,可以为action等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY_ROLE</t>
+    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_USR_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,20 +928,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -954,8 +954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="977900"/>
-          <a:ext cx="8382000" cy="6953250"/>
+          <a:off x="622300" y="76200"/>
+          <a:ext cx="8382000" cy="7543800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1328,103 +1328,103 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1558,9 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1574,103 +1572,103 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1804,9 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1816,7 +1812,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1827,15 +1823,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1843,15 +1839,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1859,42 +1855,42 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1903,7 @@
     <hyperlink ref="C6" location="权限表!A1" display="JOJO_PRV"/>
     <hyperlink ref="C7" location="资源表!A1" display="JOJO_RESOURCE"/>
     <hyperlink ref="C9" location="部门、用户关系表!A1" display="JOJO_DEPRT_USR"/>
-    <hyperlink ref="C10" location="职务、角色关系表!A1" display="JOJO_ORG_ROLE"/>
+    <hyperlink ref="C10" location="部门用户、角色关系表!A1" display="JOJO_DEPRT_USER_ROLE"/>
     <hyperlink ref="C11" location="角色、权限关系表!A1" display="JOJO_ROLE_PRV"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1940,30 +1936,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1971,206 +1967,206 @@
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2320,30 +2316,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2351,246 +2347,246 @@
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2740,105 +2736,105 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2851,100 +2847,100 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3079,7 +3075,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:E39"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3094,103 +3090,103 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3203,100 +3199,100 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3446,219 +3442,219 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3808,261 +3804,261 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4212,103 +4208,103 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="8380" windowWidth="37640" windowHeight="21140" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="-40" yWindow="0" windowWidth="25720" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="部门表" sheetId="3" r:id="rId3"/>
     <sheet name="用户表" sheetId="4" r:id="rId4"/>
     <sheet name="角色表" sheetId="5" r:id="rId5"/>
-    <sheet name="职务表" sheetId="7" r:id="rId6"/>
-    <sheet name="权限表" sheetId="8" r:id="rId7"/>
-    <sheet name="资源表" sheetId="9" r:id="rId8"/>
-    <sheet name="部门、用户关系表" sheetId="10" r:id="rId9"/>
-    <sheet name="部门用户、角色关系表" sheetId="11" r:id="rId10"/>
-    <sheet name="角色、权限关系表" sheetId="12" r:id="rId11"/>
+    <sheet name="权限表" sheetId="8" r:id="rId6"/>
+    <sheet name="资源表" sheetId="9" r:id="rId7"/>
+    <sheet name="部门、用户关系表" sheetId="10" r:id="rId8"/>
+    <sheet name="部门用户、角色关系表" sheetId="11" r:id="rId9"/>
+    <sheet name="角色、权限关系表" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="161">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,387 +302,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TARGET_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个0的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(16);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">资源名称 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按级别编号，字典排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MOBILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>smallint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形结构，级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表ID,对应JOJO_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PRV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表ID,对应JOJO_PRV.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源uri,可以为action等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户、角色关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标类型  1全局用户  2部门用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TARGET_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个0的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(16);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">资源名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按级别编号，字典排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MOBILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TARGET_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标ID，为 JOJO_USR.T_ID 或 JOJO_DEPRT_USR_.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树形结构，级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表ID,对应JOJO_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PRV_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表ID,对应JOJO_PRV.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源uri,可以为action等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DUTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USER_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_USR_ID</t>
+    <t>T_USRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，系统唯一，只能为字母+数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -1312,252 +1291,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1572,10 +1305,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -1598,7 +1331,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1626,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1641,34 +1374,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1800,9 +1533,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1844,53 +1579,45 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1899,12 +1626,11 @@
     <hyperlink ref="C2" location="部门表!A1" display="JOJO_DEPRT"/>
     <hyperlink ref="C3" location="用户表!A1" display="JOJO_USR"/>
     <hyperlink ref="C4" location="角色表!A1" display="JOJO_ROLE"/>
-    <hyperlink ref="C5" location="职务表!A1" display="JOJO_ORG"/>
-    <hyperlink ref="C6" location="权限表!A1" display="JOJO_PRV"/>
-    <hyperlink ref="C7" location="资源表!A1" display="JOJO_RESOURCE"/>
-    <hyperlink ref="C9" location="部门、用户关系表!A1" display="JOJO_DEPRT_USR"/>
-    <hyperlink ref="C10" location="部门用户、角色关系表!A1" display="JOJO_DEPRT_USER_ROLE"/>
-    <hyperlink ref="C11" location="角色、权限关系表!A1" display="JOJO_ROLE_PRV"/>
+    <hyperlink ref="C5" location="权限表!A1" display="JOJO_PRV"/>
+    <hyperlink ref="C6" location="资源表!A1" display="JOJO_RESOURCE"/>
+    <hyperlink ref="C8" location="部门、用户关系表!A1" display="JOJO_DEPRT_USR"/>
+    <hyperlink ref="C9" location="部门用户、角色关系表!A1" display="JOJO_DEPRT_USER_ROLE"/>
+    <hyperlink ref="C10" location="角色、权限关系表!A1" display="JOJO_ROLE_PRV"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1920,9 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1939,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -1987,10 +1711,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2000,12 +1724,12 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -2023,7 +1747,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -2041,7 +1765,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -2054,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2068,12 +1792,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -2087,7 +1811,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
@@ -2096,12 +1820,12 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>33</v>
@@ -2110,12 +1834,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -2124,12 +1848,12 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>12</v>
@@ -2138,12 +1862,12 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
@@ -2152,12 +1876,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -2166,7 +1890,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2298,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2319,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -2385,171 +2109,173 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="F9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
@@ -2558,44 +2284,50 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
@@ -2700,6 +2432,14 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2739,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -3084,7 +2824,7 @@
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3093,7 +2833,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -3116,7 +2856,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3159,43 +2899,53 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -3208,7 +2958,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3423,368 +3173,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -3807,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -3830,7 +3218,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3876,53 +3264,53 @@
         <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3930,28 +3318,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -3960,7 +3348,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4172,6 +3560,252 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4208,10 +3842,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -4234,7 +3868,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4259,52 +3893,52 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-40" yWindow="0" windowWidth="25720" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25840" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="165">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,71 +590,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_DEPRT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PRV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表ID,对应JOJO_PRV.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源uri,可以为action等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户、角色关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，系统唯一，只能为字母+数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户表ID,对应JOJO_USR.T_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_DEPRT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PRV_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表ID,对应JOJO_PRV.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源uri,可以为action等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USER_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_USR_ID</t>
+    <t>T_LOGIN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USRID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -662,11 +678,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_USRID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名，系统唯一，只能为字母+数字</t>
+    <t>用户登录名，对应JOJO_USR.T_USRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1324,7 @@
         <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -1331,7 +1347,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1374,7 +1390,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -1385,7 +1401,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1536,7 +1552,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1606,10 +1622,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2024,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2109,18 +2125,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2219,7 +2235,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>53</v>
@@ -2228,7 +2244,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2461,7 +2477,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3174,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3293,7 +3309,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
@@ -3302,7 +3318,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3352,64 +3368,66 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -3418,44 +3436,50 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -3560,6 +3584,14 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3596,10 +3628,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -3665,7 +3697,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -3692,16 +3724,24 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
@@ -3845,7 +3885,7 @@
         <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
@@ -3868,7 +3908,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3911,7 +3951,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -3922,7 +3962,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25840" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="4240" yWindow="660" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="部门、用户关系表" sheetId="10" r:id="rId8"/>
     <sheet name="部门用户、角色关系表" sheetId="11" r:id="rId9"/>
     <sheet name="角色、权限关系表" sheetId="12" r:id="rId10"/>
+    <sheet name="物料申请表" sheetId="13" r:id="rId11"/>
+    <sheet name="流程审批表" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="198">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +685,138 @@
   </si>
   <si>
     <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material的申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程每个任务节点的审批记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程审批表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TASKID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUS_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流中的业务主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流的任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_TASK_APPRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ASSIGNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_APPRV_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_APPRV_FLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务审批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批标识位  1通过; 2驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_TASK_APPRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS_DSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态信息的描述，针对流程节点，取值为流程的备注信息，如 ‘安技部经理审核’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0草稿 1流程处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1531,6 +1667,680 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1636,6 +2446,34 @@
         <v>94</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1647,6 +2485,8 @@
     <hyperlink ref="C8" location="部门、用户关系表!A1" display="JOJO_DEPRT_USR"/>
     <hyperlink ref="C9" location="部门用户、角色关系表!A1" display="JOJO_DEPRT_USER_ROLE"/>
     <hyperlink ref="C10" location="角色、权限关系表!A1" display="JOJO_ROLE_PRV"/>
+    <hyperlink ref="C12" location="物料申请表!A1" display="JOJO_MTR_APPLY"/>
+    <hyperlink ref="C16" location="流程审批表!A1" display="JOJO_TASK_APPRV"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1662,7 +2502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3192,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="660" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4240" yWindow="660" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="200">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,15 +204,579 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JOJO_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别  1 男 ; 2 女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(32);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(32);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TARGET_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个0的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(16);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">资源名称 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(64);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按级别编号，字典排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段，使用字典序时不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_REMARK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character varying(64);</t>
+    <t>CRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MOBILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型  1菜单  2按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形结构，级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门、用户关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_ROLE_PRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PRV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表ID,对应JOJO_PRV.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、权限关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源uri,可以为action等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户、角色关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_DEPRT_USR_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPRT_USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，系统唯一，只能为字母+数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表ID,对应JOJO_USR.T_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LOGIN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录名，对应JOJO_USR.T_USRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0无效 1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material的申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程每个任务节点的审批记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程审批表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TASKID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUS_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流中的业务主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流的任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_TASK_APPRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ASSIGNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_APPRV_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_APPRV_FLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务审批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批标识位  1通过; 2驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_TASK_APPRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS_DSC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,7 +784,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户表</t>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态信息的描述，针对流程节点，取值为流程的备注信息，如 ‘安技部经理审核’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0草稿 1流程处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,595 +820,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别  1 男 ; 2 女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(32);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(32);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TARGET_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个0的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(16);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">资源名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表ID,对应JOJO_ROLE.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(64);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按级别编号，字典排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段，使用字典序时不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRT_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间; ISO-8601格式,如1999-01-08 04:05:06.789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD_USR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MOBILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标ID，为JOJO_RESOURCE.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应当前目标资源的权限flag，每个用012..表示具体权限，如读写等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型  1菜单  2按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树形结构，级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门、用户关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表ID,对应JOJO_DEPRT.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_ROLE_PRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PRV_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表ID,对应JOJO_PRV.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、权限关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源uri,可以为action等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门用户、角色关系表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务表ID,对应JOJO_DEPRT_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USER_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_DEPRT_USR_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPRT_USR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名，系统唯一，只能为字母+数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表ID,对应JOJO_USR.T_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LOGIN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USRID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录名，对应JOJO_USR.T_USRID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0无效 1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_MTR_APPLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material的申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程每个任务节点的审批记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程审批表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TASKID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUS_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流中的业务主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流的任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_TASK_APPRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ASSIGNER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_APPRV_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_APPRV_FLG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(1024);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(2);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务审批人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批标识位  1通过; 2驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_TASK_APPRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_MTR_APPLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS_DSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(1024);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态信息的描述，针对流程节点，取值为流程的备注信息，如 ‘安技部经理审核’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0草稿 1流程处理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TITLE</t>
+    <t>T_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请对应的当前流程实例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,13 +1465,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1480,10 +1488,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1511,10 +1519,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1526,34 +1534,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1685,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1706,10 +1714,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1726,10 +1734,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1757,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1772,23 +1780,23 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -1798,85 +1806,85 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -1885,44 +1893,50 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
@@ -1987,6 +2001,14 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2026,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2046,10 +2068,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -2077,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2092,26 +2114,26 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -2119,49 +2141,49 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2174,10 +2196,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2361,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2373,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="D1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2389,10 +2411,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2400,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2408,15 +2430,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -2424,54 +2446,54 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
         <v>165</v>
       </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
       <c r="C12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
         <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2521,10 +2543,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2541,7 +2563,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2569,10 +2591,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2582,12 +2604,12 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -2605,7 +2627,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -2623,7 +2645,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -2636,7 +2658,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2644,21 +2666,21 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2669,7 +2691,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
@@ -2678,12 +2700,12 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>33</v>
@@ -2692,12 +2714,12 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -2706,12 +2728,12 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>12</v>
@@ -2720,12 +2742,12 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
@@ -2734,12 +2756,12 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -2748,7 +2770,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2901,10 +2923,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2921,7 +2943,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2967,18 +2989,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2986,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -2996,12 +3018,12 @@
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>24</v>
@@ -3012,15 +3034,15 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -3030,71 +3052,71 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3337,10 +3359,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3357,10 +3379,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3406,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -3416,15 +3438,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -3432,7 +3454,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3445,10 +3467,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3691,10 +3713,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3711,10 +3733,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -3757,66 +3779,66 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4053,10 +4075,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4073,10 +4095,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4104,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -4122,53 +4144,53 @@
         <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -4176,42 +4198,42 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>24</v>
@@ -4222,15 +4244,15 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4470,13 +4492,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4493,10 +4515,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4521,68 +4543,68 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4724,13 +4746,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4747,10 +4769,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -4778,10 +4800,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -4793,34 +4815,34 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="660" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="9400" yWindow="3460" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="203">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,15 +692,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material的申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程每个任务节点的审批记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程审批表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUS_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流中的业务主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_TASK_APPRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_MTR_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS_DSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(128);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态信息的描述，针对流程节点，取值为流程的备注信息，如 ‘安技部经理审核’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0草稿 1流程处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character varying(256);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>物料申请表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_MTR_APPLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material的申请</t>
+    <t>T_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请对应的当前流程实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INSTANCE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -708,34 +792,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程每个任务节点的审批记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程审批表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TASKID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUS_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流中的业务主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流的任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOJO_TASK_APPRV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_TASK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_ASSIGNER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,23 +808,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>character varying(1024);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_APPRV_FLG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character varying(1024);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(2);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务审批人</t>
+    <t>任务审批人,对应用户的登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见，针对流程通过或驳回，如“同意。并xxx”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,63 +828,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO_TASK_APPRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO_MTR_APPLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_STATUS_DSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(128);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(1024);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态信息的描述，针对流程节点，取值为流程的备注信息，如 ‘安技部经理审核’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态 0草稿 1流程处理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character varying(256);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_INSTANCE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请对应的当前流程实例ID</t>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程task实例id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流的流程实例id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,6 +905,15 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -993,7 +1014,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1035,6 +1056,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1695,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1714,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>59</v>
@@ -1737,7 +1759,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1780,10 +1802,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -1791,7 +1813,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1806,29 +1828,29 @@
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -1837,7 +1859,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1">
@@ -1845,7 +1867,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2027,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -2048,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>59</v>
@@ -2071,7 +2093,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -2114,7 +2136,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>45</v>
@@ -2125,134 +2147,136 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
@@ -2261,44 +2285,50 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -2363,6 +2393,14 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2394,8 +2432,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="D1" t="s">
-        <v>197</v>
+      <c r="D1" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2476,24 +2514,24 @@
         <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
         <v>167</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
         <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3460" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="9400" yWindow="3460" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="208">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,26 @@
   </si>
   <si>
     <t>工作流的流程实例id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叶子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_IS_LEAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1034,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1057,6 +1077,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2421,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2560,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2715,63 +2738,67 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>12</v>
@@ -2780,44 +2807,50 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
@@ -2922,6 +2955,14 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4092,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -4270,80 +4311,74 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
@@ -4352,44 +4387,50 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
@@ -4494,6 +4535,14 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/work/docs/jojo.xlsx
+++ b/work/docs/jojo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3460" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="9400" yWindow="3460" windowWidth="25840" windowHeight="16060" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="领域模型图" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="角色、权限关系表" sheetId="12" r:id="rId10"/>
     <sheet name="物料申请表" sheetId="13" r:id="rId11"/>
     <sheet name="流程审批表" sheetId="14" r:id="rId12"/>
+    <sheet name="流程业务结果表" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="216">
   <si>
     <t>系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,35 +829,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>流程task实例id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流的流程实例id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叶子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_IS_LEAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程结束时刷新状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程业务结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程业务结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PORC_BUS_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>smallint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程task实例id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流的流程实例id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否叶子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_IS_LEAF</t>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOJO_PORC_BUS_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流程业务的处理结果。9:已结束 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2075,7 +2108,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2170,7 +2203,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2186,7 +2219,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2238,7 +2271,7 @@
         <v>196</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2424,6 +2457,264 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="表结构main!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2442,16 +2733,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2555,6 +2847,17 @@
       </c>
       <c r="D16" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2570,6 +2873,7 @@
     <hyperlink ref="C10" location="角色、权限关系表!A1" display="JOJO_ROLE_PRV"/>
     <hyperlink ref="C12" location="物料申请表!A1" display="JOJO_MTR_APPLY"/>
     <hyperlink ref="C16" location="流程审批表!A1" display="JOJO_TASK_APPRV"/>
+    <hyperlink ref="C17" location="流程业务结果表!A1" display="JOJO_PORC_BUS_RESULT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2585,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2738,20 +3042,20 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6">
